--- a/data/solar_growth_irena.xlsx
+++ b/data/solar_growth_irena.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9FE4AA-209A-4083-B8AD-3B6582B704B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A355AD-B266-425E-BBE8-7663EBE7936E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,6 +467,12 @@
         <v>25.491792158458829</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <f>SUM(C3:C8)/6</f>
+        <v>45.143913857435713</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F1" r:id="rId1" xr:uid="{9A2B120B-0F39-47A8-98E5-53C1C81CBC76}"/>

--- a/data/solar_growth_irena.xlsx
+++ b/data/solar_growth_irena.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A355AD-B266-425E-BBE8-7663EBE7936E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D902D39-1CF1-4065-8894-369C7950546A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31065" yWindow="2265" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="world_solar" sheetId="1" r:id="rId1"/>
+    <sheet name="japan_solar" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Cap (GW)</t>
   </si>
@@ -40,6 +41,15 @@
   </si>
   <si>
     <t>http://resourceirena.irena.org/gateway/countrySearch/?countryCode=JPN</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>% inc</t>
+  </si>
+  <si>
+    <t>change</t>
   </si>
 </sst>
 </file>
@@ -368,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -389,88 +399,254 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="B2">
-        <v>6.43</v>
+        <v>0.80700000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="B3">
-        <v>12.106999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C3">
-        <f>(B3-B2)*100/B2</f>
-        <v>88.289269051321924</v>
+        <f>(B3-B2)/B2</f>
+        <v>0.3506815365551425</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="B4">
-        <v>19.334</v>
+        <v>1.4339999999999999</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C8" si="0">(B4-B3)*100/B3</f>
-        <v>59.692739737342038</v>
+        <f t="shared" ref="C4:C21" si="0">(B4-B3)/B3</f>
+        <v>0.31559633027522921</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2015</v>
+        <v>2003</v>
       </c>
       <c r="B5">
-        <v>28.614999999999998</v>
+        <v>1.9610000000000001</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>48.003517120099303</v>
+        <v>0.36750348675034877</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="B6">
-        <v>38.438000000000002</v>
+        <v>3.0470000000000002</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>34.328149571902863</v>
+        <v>0.55379908210096895</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="B7">
-        <v>44.225999999999999</v>
+        <v>4.54</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>15.058015505489351</v>
+        <v>0.48999015425008197</v>
+      </c>
+      <c r="D7">
+        <f>SUM(C3:C7)/5</f>
+        <v>0.41551411798635429</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8">
+        <v>6.077</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.33854625550660788</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+      <c r="B9">
+        <v>8.4860000000000007</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.39641270363666292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+      <c r="B10">
+        <v>14.701000000000001</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.73238274805562098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+      <c r="B11">
+        <v>22.798999999999999</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.5508468811645465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+      <c r="B12">
+        <v>40.232999999999997</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.764682661520242</v>
+      </c>
+      <c r="D12">
+        <f>SUM(C8:C12)/5</f>
+        <v>0.55657424997673599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+      <c r="B13">
+        <v>71.965000000000003</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.78870578878035469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14">
+        <v>101.325</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.407976099492809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+      <c r="B15">
+        <v>135.54599999999999</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.33773501110288662</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+      <c r="B16">
+        <v>171.05199999999999</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.2619479733817302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2015</v>
+      </c>
+      <c r="B17">
+        <v>216.334</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.26472651591328961</v>
+      </c>
+      <c r="D17">
+        <f>SUM(C13:C17)/5</f>
+        <v>0.41221827773421404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+      <c r="B18">
+        <v>289.41399999999999</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0.33781097747002314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+      <c r="B19">
+        <v>380.17200000000003</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0.31359229339285605</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>2018</v>
       </c>
-      <c r="B8">
-        <v>55.5</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>25.491792158458829</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C9">
-        <f>SUM(C3:C8)/6</f>
-        <v>45.143913857435713</v>
+      <c r="B20">
+        <v>477.83199999999999</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0.25688372631335282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2019</v>
+      </c>
+      <c r="B21">
+        <v>573.69500000000005</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0.20062072025314348</v>
+      </c>
+      <c r="D21">
+        <f>SUM(C18:C21)/4</f>
+        <v>0.27722692935734383</v>
       </c>
     </row>
   </sheetData>
@@ -479,4 +655,182 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3244EF-2029-4C80-A61A-83B0B13816F3}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>3.5990000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C3">
+        <f>(B3-B2)/B2</f>
+        <v>0.35871075298694066</v>
+      </c>
+      <c r="D3">
+        <f>B3-B2</f>
+        <v>1.2909999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>6.43</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C11" si="0">(B4-B3)/B3</f>
+        <v>0.31492842535787324</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D11" si="1">B4-B3</f>
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>12.106999999999999</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.88289269051321928</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>5.6769999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>19.334</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.59692739737342038</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>7.2270000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>28.614999999999998</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.48003517120099304</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>9.2809999999999988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>38.438000000000002</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.34328149571902866</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>9.823000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>44.225999999999999</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.1505801550548935</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>5.7879999999999967</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>55.5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.25491792158458826</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>11.274000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>61.84</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.1142342342342343</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>6.3400000000000034</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>